--- a/data/trans_orig/P36B08_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>502334</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>476942</v>
+        <v>478652</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>523344</v>
+        <v>526148</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.723812060288144</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6872248972675048</v>
+        <v>0.6896878433431625</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7540852843733734</v>
+        <v>0.7581257505295971</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>537</v>
@@ -765,19 +765,19 @@
         <v>535957</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>513165</v>
+        <v>514566</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>556720</v>
+        <v>556416</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7786101737178697</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7454986427440833</v>
+        <v>0.7475349006007515</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8087741247211477</v>
+        <v>0.8083312867375978</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1030</v>
@@ -786,19 +786,19 @@
         <v>1038291</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1003764</v>
+        <v>1001921</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1068346</v>
+        <v>1066883</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7510989115271195</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.726121639993359</v>
+        <v>0.7247884898741489</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7728403657820438</v>
+        <v>0.7717821154505842</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>191678</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>170668</v>
+        <v>167864</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>217070</v>
+        <v>215360</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.276187939711856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2459147156266266</v>
+        <v>0.2418742494704029</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3127751027324954</v>
+        <v>0.3103121566568375</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>159</v>
@@ -836,19 +836,19 @@
         <v>152394</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>131631</v>
+        <v>131935</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>175186</v>
+        <v>173785</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2213898262821303</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1912258752788522</v>
+        <v>0.1916687132624017</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2545013572559165</v>
+        <v>0.252465099399248</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>349</v>
@@ -857,19 +857,19 @@
         <v>344072</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>314017</v>
+        <v>315480</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>378599</v>
+        <v>380442</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2489010884728805</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.227159634217956</v>
+        <v>0.2282178845494155</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2738783600066407</v>
+        <v>0.2752115101258495</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>597888</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>564630</v>
+        <v>567563</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>630130</v>
+        <v>628180</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6216340571588324</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5870554382334844</v>
+        <v>0.5901045895089707</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6551573740904181</v>
+        <v>0.6531298317632573</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>620</v>
@@ -982,19 +982,19 @@
         <v>665142</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>633981</v>
+        <v>635392</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>694241</v>
+        <v>693482</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.687604351797321</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6553909080771403</v>
+        <v>0.6568493991439522</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7176853465520757</v>
+        <v>0.7169010410089061</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1178</v>
@@ -1003,19 +1003,19 @@
         <v>1263030</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1222198</v>
+        <v>1220740</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1305916</v>
+        <v>1306530</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6547138121641289</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6335478272355805</v>
+        <v>0.6327918377558769</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6769447184818943</v>
+        <v>0.6772630426545204</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>363912</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>331670</v>
+        <v>333620</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>397170</v>
+        <v>394237</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3783659428411676</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3448426259095815</v>
+        <v>0.3468701682367425</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4129445617665154</v>
+        <v>0.4098954104910291</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>287</v>
@@ -1053,19 +1053,19 @@
         <v>302191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>273092</v>
+        <v>273851</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>333352</v>
+        <v>331941</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.312395648202679</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2823146534479242</v>
+        <v>0.2830989589910939</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3446090919228594</v>
+        <v>0.3431506008560476</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>625</v>
@@ -1074,19 +1074,19 @@
         <v>666103</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>623217</v>
+        <v>622603</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>706935</v>
+        <v>708393</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.345286187835871</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3230552815181056</v>
+        <v>0.3227369573454795</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3664521727644196</v>
+        <v>0.3672081622441229</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>393079</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>367511</v>
+        <v>365556</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>419425</v>
+        <v>417349</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5793278259590947</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5416445312618657</v>
+        <v>0.5387638772216764</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6181572773749069</v>
+        <v>0.6150976138963988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>490</v>
@@ -1199,19 +1199,19 @@
         <v>482443</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>458277</v>
+        <v>457595</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>505240</v>
+        <v>504179</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7054896442119272</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6701515352790856</v>
+        <v>0.6691541769857589</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.738826865393153</v>
+        <v>0.7372758372254656</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>861</v>
@@ -1220,19 +1220,19 @@
         <v>875522</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>839833</v>
+        <v>839237</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>909696</v>
+        <v>912187</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.642655628368588</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6164592116836582</v>
+        <v>0.6160214991657263</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.667740103841537</v>
+        <v>0.6695688545301699</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>285430</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>259084</v>
+        <v>261160</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310998</v>
+        <v>312953</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4206721740409053</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3818427226250931</v>
+        <v>0.3849023861036011</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4583554687381342</v>
+        <v>0.4612361227783235</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>206</v>
@@ -1270,19 +1270,19 @@
         <v>201398</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>178601</v>
+        <v>179662</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>225564</v>
+        <v>226246</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2945103557880728</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.261173134606847</v>
+        <v>0.2627241627745345</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3298484647209144</v>
+        <v>0.3308458230142411</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>476</v>
@@ -1291,19 +1291,19 @@
         <v>486828</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>452654</v>
+        <v>450163</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>522517</v>
+        <v>523113</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3573443716314119</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3322598961584631</v>
+        <v>0.3304311454698302</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3835407883163418</v>
+        <v>0.3839785008342737</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>577830</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>546806</v>
+        <v>549071</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>604053</v>
+        <v>605697</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6138061093060267</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5808505526338459</v>
+        <v>0.5832568507948234</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6416615991021305</v>
+        <v>0.6434081674482155</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>685</v>
@@ -1416,19 +1416,19 @@
         <v>718028</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>687960</v>
+        <v>689827</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>749489</v>
+        <v>746936</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6913342609291285</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.662384371384462</v>
+        <v>0.6641817088619367</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7216252004072321</v>
+        <v>0.7191675050320617</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1293</v>
@@ -1437,19 +1437,19 @@
         <v>1295858</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1253229</v>
+        <v>1255380</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1336737</v>
+        <v>1338623</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6544736180282541</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.632943903551822</v>
+        <v>0.6340303367449059</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.675119527451883</v>
+        <v>0.6760719792070625</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>363558</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>337335</v>
+        <v>335691</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>394582</v>
+        <v>392317</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3861938906939732</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3583384008978694</v>
+        <v>0.3565918325517844</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4191494473661541</v>
+        <v>0.4167431492051764</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>312</v>
@@ -1487,19 +1487,19 @@
         <v>320584</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>289123</v>
+        <v>291676</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>350652</v>
+        <v>348785</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3086657390708715</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.278374799592768</v>
+        <v>0.2808324949679381</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3376156286155378</v>
+        <v>0.3358182911380632</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>697</v>
@@ -1508,19 +1508,19 @@
         <v>684142</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>643263</v>
+        <v>641377</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>726771</v>
+        <v>724620</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3455263819717459</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.324880472548117</v>
+        <v>0.3239280207929374</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3670560964481779</v>
+        <v>0.365969663255094</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>2071131</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2023674</v>
+        <v>2017955</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2133695</v>
+        <v>2128854</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6322694572759981</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6177819094330131</v>
+        <v>0.6160361948544836</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6513687992264694</v>
+        <v>0.6498909466268467</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2332</v>
@@ -1633,19 +1633,19 @@
         <v>2401570</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2345042</v>
+        <v>2351555</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2455498</v>
+        <v>2451425</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7109155939729996</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6941819389954378</v>
+        <v>0.6961098922633981</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7268794223330922</v>
+        <v>0.7256737620509387</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4362</v>
@@ -1654,19 +1654,19 @@
         <v>4472702</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4388737</v>
+        <v>4402797</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4542687</v>
+        <v>4554752</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6721978578537066</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6595789440501905</v>
+        <v>0.6616919305088612</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6827159017497733</v>
+        <v>0.6845290510300438</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1204578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1142014</v>
+        <v>1146855</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1252035</v>
+        <v>1257754</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3677305427240019</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3486312007735312</v>
+        <v>0.3501090533731533</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3822180905669877</v>
+        <v>0.3839638051455162</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>964</v>
@@ -1704,19 +1704,19 @@
         <v>976567</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>922639</v>
+        <v>926712</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1033095</v>
+        <v>1026582</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2890844060270004</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2731205776669078</v>
+        <v>0.2743262379490614</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3058180610045624</v>
+        <v>0.303890107736602</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2147</v>
@@ -1725,19 +1725,19 @@
         <v>2181145</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2111160</v>
+        <v>2099095</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2265110</v>
+        <v>2251050</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3278021421462935</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3172840982502267</v>
+        <v>0.3154709489699563</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3404210559498095</v>
+        <v>0.3383080694911388</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>531184</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>507126</v>
+        <v>507146</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>555220</v>
+        <v>552987</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7562429327927417</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.721992846853883</v>
+        <v>0.7220208029823106</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7904641539642142</v>
+        <v>0.7872840444389041</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>536</v>
@@ -2090,19 +2090,19 @@
         <v>576029</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>554909</v>
+        <v>554945</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>594163</v>
+        <v>597022</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8263809871276584</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7960815040962889</v>
+        <v>0.7961339843111963</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8523970940936687</v>
+        <v>0.8564985084818691</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1044</v>
@@ -2111,19 +2111,19 @@
         <v>1107212</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1076499</v>
+        <v>1073533</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1137366</v>
+        <v>1139176</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7911779338878187</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7692312756402933</v>
+        <v>0.7671120406532658</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8127243954816379</v>
+        <v>0.8140182821532165</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>171214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>147178</v>
+        <v>149411</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>195272</v>
+        <v>195252</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2437570672072583</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2095358460357858</v>
+        <v>0.2127159555610962</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2780071531461171</v>
+        <v>0.2779791970176895</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>114</v>
@@ -2161,19 +2161,19 @@
         <v>121021</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>102887</v>
+        <v>100028</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>142141</v>
+        <v>142105</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1736190128723416</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1476029059063313</v>
+        <v>0.1435014915181309</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2039184959037111</v>
+        <v>0.2038660156888035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>279</v>
@@ -2182,19 +2182,19 @@
         <v>292236</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>262082</v>
+        <v>260272</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>322949</v>
+        <v>325915</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2088220661121813</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1872756045183619</v>
+        <v>0.1859817178467836</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2307687243597067</v>
+        <v>0.2328879593467343</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>716847</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>688777</v>
+        <v>687258</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>745632</v>
+        <v>745208</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7070222446504182</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6793367478091121</v>
+        <v>0.6778391312060791</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.735412448773371</v>
+        <v>0.7349946468778711</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>726</v>
@@ -2307,19 +2307,19 @@
         <v>795621</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>767245</v>
+        <v>765473</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>824257</v>
+        <v>822519</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7731243409681696</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7455501529481329</v>
+        <v>0.7438281035162647</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8009505867963617</v>
+        <v>0.7992615825192777</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1381</v>
@@ -2328,19 +2328,19 @@
         <v>1512469</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1471957</v>
+        <v>1470461</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1551572</v>
+        <v>1550337</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7403192456762121</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7204898772726731</v>
+        <v>0.7197574041943214</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7594593456296492</v>
+        <v>0.7588550049213952</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>297049</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>268264</v>
+        <v>268688</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>325119</v>
+        <v>326638</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2929777553495818</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.264587551226629</v>
+        <v>0.2650053531221285</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3206632521908878</v>
+        <v>0.3221608687939209</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>212</v>
@@ -2378,19 +2378,19 @@
         <v>233478</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>204842</v>
+        <v>206580</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>261854</v>
+        <v>263626</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2268756590318304</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1990494132036383</v>
+        <v>0.2007384174807223</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2544498470518671</v>
+        <v>0.2561718964837352</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>489</v>
@@ -2399,19 +2399,19 @@
         <v>530526</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>491423</v>
+        <v>492658</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>571038</v>
+        <v>572534</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2596807543237878</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2405406543703508</v>
+        <v>0.2411449950786048</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2795101227273269</v>
+        <v>0.2802425958056788</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>499284</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>469654</v>
+        <v>472972</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>525228</v>
+        <v>526627</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6608328727232916</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6216147556563794</v>
+        <v>0.626006582995438</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.695170601689576</v>
+        <v>0.6970221823103048</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>520</v>
@@ -2524,19 +2524,19 @@
         <v>578754</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>553705</v>
+        <v>548539</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>602451</v>
+        <v>601390</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7457077865590613</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7134328572550248</v>
+        <v>0.7067766872290279</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7762409490803756</v>
+        <v>0.7748737447315645</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>966</v>
@@ -2545,19 +2545,19 @@
         <v>1078038</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1034998</v>
+        <v>1039730</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1109873</v>
+        <v>1112667</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7038404165233451</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6757402473874389</v>
+        <v>0.678829507960901</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7246251260203682</v>
+        <v>0.7264492245636374</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>256254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>230310</v>
+        <v>228911</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>285884</v>
+        <v>282566</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3391671272767083</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3048293983104242</v>
+        <v>0.3029778176896951</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3783852443436207</v>
+        <v>0.373993417004562</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>184</v>
@@ -2595,19 +2595,19 @@
         <v>197359</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>173662</v>
+        <v>174723</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>222408</v>
+        <v>227574</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2542922134409387</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2237590509196243</v>
+        <v>0.2251262552684355</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2865671427449748</v>
+        <v>0.293223312770972</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>425</v>
@@ -2616,19 +2616,19 @@
         <v>453613</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>421778</v>
+        <v>418984</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>496653</v>
+        <v>491921</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2961595834766549</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2753748739796317</v>
+        <v>0.2735507754363625</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.324259752612561</v>
+        <v>0.3211704920390989</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>685976</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>659217</v>
+        <v>655310</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>713951</v>
+        <v>712162</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7238025554604627</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6955680922136598</v>
+        <v>0.691445113836256</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7533198088172258</v>
+        <v>0.7514329852976187</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>832</v>
@@ -2741,19 +2741,19 @@
         <v>872633</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>845141</v>
+        <v>846235</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>896213</v>
+        <v>895470</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8340860814672819</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8078085304279566</v>
+        <v>0.8088535990689397</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8566240457293979</v>
+        <v>0.8559138859109542</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1485</v>
@@ -2762,19 +2762,19 @@
         <v>1558609</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1518535</v>
+        <v>1518513</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1592561</v>
+        <v>1594561</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7816676002221836</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7615696847364596</v>
+        <v>0.761558879325825</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7986950847606655</v>
+        <v>0.7996978698796597</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>261763</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>233788</v>
+        <v>235577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>288522</v>
+        <v>292429</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2761974445395373</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2466801911827742</v>
+        <v>0.2485670147023817</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3044319077863404</v>
+        <v>0.3085548861637441</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>167</v>
@@ -2812,19 +2812,19 @@
         <v>173582</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>150002</v>
+        <v>150745</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>201074</v>
+        <v>199980</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1659139185327181</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1433759542706023</v>
+        <v>0.1440861140890458</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1921914695720436</v>
+        <v>0.1911464009310604</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>424</v>
@@ -2833,19 +2833,19 @@
         <v>435345</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>401393</v>
+        <v>399393</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>475419</v>
+        <v>475441</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2183323997778163</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2013049152393344</v>
+        <v>0.2003021301203403</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2384303152635403</v>
+        <v>0.2384411206741749</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>2433291</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2383346</v>
+        <v>2377581</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2489346</v>
+        <v>2484783</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7115778080582933</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6969721790471286</v>
+        <v>0.6952862571398259</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7279701507878756</v>
+        <v>0.7266359960446286</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2614</v>
@@ -2958,19 +2958,19 @@
         <v>2823037</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2774518</v>
+        <v>2774454</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2870926</v>
+        <v>2873530</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.795563053083408</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7818896786822317</v>
+        <v>0.7818717245024267</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8090587413278787</v>
+        <v>0.8097926177105443</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4876</v>
@@ -2979,19 +2979,19 @@
         <v>5256329</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5187540</v>
+        <v>5179933</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5335256</v>
+        <v>5329566</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7543472740988879</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7444752489769761</v>
+        <v>0.7433835899677026</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7656742497742314</v>
+        <v>0.764857777511878</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>986280</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>930225</v>
+        <v>934788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1036225</v>
+        <v>1041990</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2884221919417068</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2720298492121244</v>
+        <v>0.2733640039553714</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.303027820952871</v>
+        <v>0.3047137428601737</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>677</v>
@@ -3029,19 +3029,19 @@
         <v>725440</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>677551</v>
+        <v>674947</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>773959</v>
+        <v>774023</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.204436946916592</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1909412586721213</v>
+        <v>0.1902073822894556</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2181103213177682</v>
+        <v>0.2181282754975732</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1617</v>
@@ -3050,19 +3050,19 @@
         <v>1711720</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1632793</v>
+        <v>1638483</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1780509</v>
+        <v>1788116</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2456527259011121</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2343257502257685</v>
+        <v>0.235142222488122</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2555247510230238</v>
+        <v>0.2566164100322973</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>496894</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>472831</v>
+        <v>473887</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>518173</v>
+        <v>518059</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7408286339340321</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.704953193521019</v>
+        <v>0.7065279203655198</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7725535919813256</v>
+        <v>0.7723839803925604</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>504</v>
@@ -3415,19 +3415,19 @@
         <v>506970</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>485900</v>
+        <v>482345</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>528592</v>
+        <v>527888</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7567348481826895</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7252846617301955</v>
+        <v>0.7199776655478984</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7890086855787579</v>
+        <v>0.7879576541879986</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>985</v>
@@ -3436,19 +3436,19 @@
         <v>1003864</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>971254</v>
+        <v>972322</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1033889</v>
+        <v>1033064</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7487770964129647</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7244532996595654</v>
+        <v>0.7252500131612645</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7711729508155017</v>
+        <v>0.7705577869009056</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>173833</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>152554</v>
+        <v>152668</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>197896</v>
+        <v>196840</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2591713660659679</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2274464080186748</v>
+        <v>0.2276160196074395</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2950468064789811</v>
+        <v>0.2934720796344802</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>159</v>
@@ -3486,19 +3486,19 @@
         <v>162974</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>141352</v>
+        <v>142056</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>184044</v>
+        <v>187599</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2432651518173104</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.210991314421242</v>
+        <v>0.2120423458120014</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2747153382698039</v>
+        <v>0.2800223344521012</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>326</v>
@@ -3507,19 +3507,19 @@
         <v>336807</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>306782</v>
+        <v>307607</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>369417</v>
+        <v>368349</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2512229035870353</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2288270491844983</v>
+        <v>0.2294422130990947</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2755467003404347</v>
+        <v>0.2747499868387357</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>734213</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>702851</v>
+        <v>701805</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>764772</v>
+        <v>762315</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7188685385071667</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6881623493776781</v>
+        <v>0.6871384311403621</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7487894433412244</v>
+        <v>0.7463833834832106</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>745</v>
@@ -3632,19 +3632,19 @@
         <v>799091</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>769765</v>
+        <v>772082</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>825427</v>
+        <v>826052</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7670148984700998</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7388661025920207</v>
+        <v>0.7410899509412432</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.792293615803326</v>
+        <v>0.7928931695937573</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1427</v>
@@ -3653,19 +3653,19 @@
         <v>1533304</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1491474</v>
+        <v>1490281</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1572489</v>
+        <v>1573625</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7431806270997149</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7229057346422154</v>
+        <v>0.7223278050240103</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7621733615752543</v>
+        <v>0.7627239949903103</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>287132</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>256573</v>
+        <v>259030</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>318494</v>
+        <v>319540</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2811314614928332</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2512105566587754</v>
+        <v>0.2536166165167892</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3118376506223219</v>
+        <v>0.3128615688596369</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>231</v>
@@ -3703,19 +3703,19 @@
         <v>242729</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>216393</v>
+        <v>215768</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>272055</v>
+        <v>269738</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2329851015299002</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.207706384196674</v>
+        <v>0.2071068304062427</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2611338974079794</v>
+        <v>0.2589100490587568</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>499</v>
@@ -3724,19 +3724,19 @@
         <v>529861</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>490676</v>
+        <v>489540</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>571691</v>
+        <v>572884</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2568193729002852</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2378266384247457</v>
+        <v>0.2372760050096897</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2770942653577845</v>
+        <v>0.2776721949759897</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>500216</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>475124</v>
+        <v>473864</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>529195</v>
+        <v>528648</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6675079174324609</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6340240782320764</v>
+        <v>0.6323415912465742</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7061782682056187</v>
+        <v>0.7054483249549549</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>529</v>
@@ -3849,19 +3849,19 @@
         <v>568464</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>543251</v>
+        <v>541137</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>592020</v>
+        <v>592712</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7301677608239036</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.697782013667289</v>
+        <v>0.6950677734221237</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7604242367897025</v>
+        <v>0.7613130461881693</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>994</v>
@@ -3870,19 +3870,19 @@
         <v>1068680</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1034692</v>
+        <v>1028527</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1104474</v>
+        <v>1102965</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6994357633941883</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.677190852808755</v>
+        <v>0.6731556569028146</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7228623290269539</v>
+        <v>0.7218746893400829</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>249163</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>220184</v>
+        <v>220731</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>274255</v>
+        <v>275515</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3324920825675392</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2938217317943815</v>
+        <v>0.2945516750450451</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3659759217679236</v>
+        <v>0.3676584087534258</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>201</v>
@@ -3920,19 +3920,19 @@
         <v>210075</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>186519</v>
+        <v>185827</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>235288</v>
+        <v>237402</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2698322391760964</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2395757632102974</v>
+        <v>0.2386869538118309</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.302217986332711</v>
+        <v>0.3049322265778765</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>424</v>
@@ -3941,19 +3941,19 @@
         <v>459238</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>423444</v>
+        <v>424953</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>493226</v>
+        <v>499391</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3005642366058117</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2771376709730459</v>
+        <v>0.2781253106599169</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3228091471912449</v>
+        <v>0.326844343097185</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>710286</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>683219</v>
+        <v>682324</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>735405</v>
+        <v>733179</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7590794131974488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7301528340904067</v>
+        <v>0.7291965207280673</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7859240434516559</v>
+        <v>0.7835449178923349</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>779</v>
@@ -4066,19 +4066,19 @@
         <v>856269</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>829185</v>
+        <v>827686</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>878550</v>
+        <v>876953</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8253342029900246</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7992286837578676</v>
+        <v>0.7977841279260179</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8468111104086223</v>
+        <v>0.8452710490145328</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1485</v>
@@ -4087,19 +4087,19 @@
         <v>1566554</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1528622</v>
+        <v>1531401</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1601106</v>
+        <v>1598843</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7939152267723077</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7746914936531566</v>
+        <v>0.7760997342658077</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8114256831393575</v>
+        <v>0.8102786145932377</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>225434</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>200315</v>
+        <v>202541</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>252501</v>
+        <v>253396</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2409205868025512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2140759565483442</v>
+        <v>0.216455082107665</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2698471659095935</v>
+        <v>0.2708034792719328</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>174</v>
@@ -4137,19 +4137,19 @@
         <v>181212</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>158931</v>
+        <v>160528</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>208296</v>
+        <v>209795</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1746657970099754</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1531888895913777</v>
+        <v>0.1547289509854673</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2007713162421325</v>
+        <v>0.2022158720739821</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>398</v>
@@ -4158,19 +4158,19 @@
         <v>406647</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>372095</v>
+        <v>374358</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>444579</v>
+        <v>441800</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2060847732276923</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1885743168606425</v>
+        <v>0.1897213854067623</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2253085063468434</v>
+        <v>0.2239002657341923</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>2441609</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2384617</v>
+        <v>2385157</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2494305</v>
+        <v>2490472</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7229745773568595</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7060988334748287</v>
+        <v>0.7062590082952122</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7385782521067578</v>
+        <v>0.7374432492166588</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2557</v>
@@ -4283,19 +4283,19 @@
         <v>2730794</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2681855</v>
+        <v>2676539</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2779995</v>
+        <v>2782399</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7740819879060942</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7602095461874366</v>
+        <v>0.7587026461628381</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7880286629912968</v>
+        <v>0.7887100599667769</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4891</v>
@@ -4304,19 +4304,19 @@
         <v>5172404</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5100042</v>
+        <v>5097170</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5242625</v>
+        <v>5251175</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7490856667729355</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7386060304800989</v>
+        <v>0.7381901090429763</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7592553431749243</v>
+        <v>0.760493680271219</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>935562</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>882866</v>
+        <v>886699</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>992554</v>
+        <v>992014</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2770254226431405</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2614217478932421</v>
+        <v>0.2625567507833412</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2939011665251708</v>
+        <v>0.2937409917047878</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>765</v>
@@ -4354,19 +4354,19 @@
         <v>796990</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>747789</v>
+        <v>745385</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>845929</v>
+        <v>851245</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2259180120939058</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2119713370087027</v>
+        <v>0.2112899400332231</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2397904538125632</v>
+        <v>0.2412973538371619</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1647</v>
@@ -4375,19 +4375,19 @@
         <v>1732552</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1662331</v>
+        <v>1653781</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1804914</v>
+        <v>1807786</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2509143332270645</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2407446568250756</v>
+        <v>0.239506319728781</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2613939695199009</v>
+        <v>0.2618098909570236</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>656036</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>639124</v>
+        <v>640898</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>667156</v>
+        <v>666346</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9523511996883405</v>
+        <v>0.9523511996883404</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9278002942973618</v>
+        <v>0.9303763683297228</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9684936316743187</v>
+        <v>0.9673183732216091</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1193</v>
@@ -4740,19 +4740,19 @@
         <v>703056</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>692886</v>
+        <v>692788</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>710598</v>
+        <v>710462</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9604721580792512</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.946577987797195</v>
+        <v>0.9464451608071407</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9707753917398447</v>
+        <v>0.9705899069446674</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1892</v>
@@ -4761,19 +4761,19 @@
         <v>1359093</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1339889</v>
+        <v>1341037</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1372030</v>
+        <v>1372722</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9565349387498363</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9430191646342406</v>
+        <v>0.9438272423941566</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9656404127288245</v>
+        <v>0.9661272753868962</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>32823</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21703</v>
+        <v>22513</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49735</v>
+        <v>47961</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0476488003116596</v>
+        <v>0.04764880031165959</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03150636832568136</v>
+        <v>0.03268162677839104</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07219970570263738</v>
+        <v>0.06962363167027832</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -4811,19 +4811,19 @@
         <v>28934</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21392</v>
+        <v>21528</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39104</v>
+        <v>39202</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03952784192074883</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02922460826015505</v>
+        <v>0.02941009305533269</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05342201220280487</v>
+        <v>0.05355483919285874</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>72</v>
@@ -4832,19 +4832,19 @@
         <v>61757</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48820</v>
+        <v>48128</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>80961</v>
+        <v>79813</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04346506125016375</v>
+        <v>0.04346506125016374</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0343595872711755</v>
+        <v>0.03387272461310367</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05698083536575909</v>
+        <v>0.05617275760584327</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>1000994</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>982655</v>
+        <v>983830</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1015244</v>
+        <v>1014450</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9552264080667909</v>
+        <v>0.9552264080667908</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9377261248039858</v>
+        <v>0.938847305460239</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9688248942177942</v>
+        <v>0.9680671175154808</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1473</v>
@@ -4957,19 +4957,19 @@
         <v>1039171</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1027511</v>
+        <v>1028587</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1047068</v>
+        <v>1048465</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.972301249240094</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9613910286777828</v>
+        <v>0.9623981393853235</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9796897578899716</v>
+        <v>0.9809967847948355</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2397</v>
@@ -4978,19 +4978,19 @@
         <v>2040164</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2018480</v>
+        <v>2018534</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2056468</v>
+        <v>2056398</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9638479714501873</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9536032601825933</v>
+        <v>0.9536291157587915</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9715501979018826</v>
+        <v>0.9715170617667989</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>46919</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>32669</v>
+        <v>33463</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>65258</v>
+        <v>64083</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04477359193320898</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03117510578220594</v>
+        <v>0.03193288248451907</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06227387519601431</v>
+        <v>0.06115269453976075</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -5028,19 +5028,19 @@
         <v>29604</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21707</v>
+        <v>20310</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>41264</v>
+        <v>40188</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02769875075990611</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02031024211002845</v>
+        <v>0.01900321520516475</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03860897132221756</v>
+        <v>0.03760186061467767</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>79</v>
@@ -5049,19 +5049,19 @@
         <v>76523</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>60219</v>
+        <v>60289</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>98207</v>
+        <v>98153</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03615202854981261</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02844980209811718</v>
+        <v>0.02848293823320131</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04639673981740653</v>
+        <v>0.04637088424120993</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>747326</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>726938</v>
+        <v>726597</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>764168</v>
+        <v>761923</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9305823865312144</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.905195018721528</v>
+        <v>0.904770410663525</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9515548317248967</v>
+        <v>0.9487594263601999</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>994</v>
@@ -5174,19 +5174,19 @@
         <v>762681</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>746394</v>
+        <v>743987</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>775800</v>
+        <v>774855</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9389627536815746</v>
+        <v>0.9389627536815743</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9189111028870457</v>
+        <v>0.9159479556231843</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.955114001894062</v>
+        <v>0.9539503642955708</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1627</v>
@@ -5195,19 +5195,19 @@
         <v>1510007</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1480448</v>
+        <v>1485317</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1530928</v>
+        <v>1531603</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9347963978673626</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.916497376718401</v>
+        <v>0.9195117017799461</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.947748313831678</v>
+        <v>0.9481659090200911</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>55747</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38905</v>
+        <v>41150</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>76135</v>
+        <v>76476</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.06941761346878551</v>
+        <v>0.06941761346878553</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0484451682751032</v>
+        <v>0.05124057363980003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09480498127847233</v>
+        <v>0.09522958933647499</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>53</v>
@@ -5245,19 +5245,19 @@
         <v>49578</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>36459</v>
+        <v>37404</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>65865</v>
+        <v>68272</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06103724631842552</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04488599810593794</v>
+        <v>0.04604963570442924</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08108889711295429</v>
+        <v>0.08405204437681567</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>96</v>
@@ -5266,19 +5266,19 @@
         <v>105325</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>84404</v>
+        <v>83729</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>134884</v>
+        <v>130015</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06520360213263748</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05225168616832205</v>
+        <v>0.05183409097990883</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08350262328159876</v>
+        <v>0.0804882982200536</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>924895</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>906171</v>
+        <v>906387</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>939499</v>
+        <v>940171</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9359167956403261</v>
+        <v>0.9359167956403263</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9169693443364598</v>
+        <v>0.9171879352487264</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9506940975830835</v>
+        <v>0.9513746446059058</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1497</v>
@@ -5391,19 +5391,19 @@
         <v>1067051</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1052950</v>
+        <v>1049187</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1079899</v>
+        <v>1078276</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.9546746327134989</v>
+        <v>0.9546746327134992</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9420583748327436</v>
+        <v>0.9386913233281742</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9661688921855485</v>
+        <v>0.9647169761914365</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2440</v>
@@ -5412,19 +5412,19 @@
         <v>1991946</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1968186</v>
+        <v>1969771</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2010329</v>
+        <v>2012327</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9458723973941543</v>
+        <v>0.9458723973941545</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.934589879978088</v>
+        <v>0.9353427650829759</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9546016697122649</v>
+        <v>0.9555501515137794</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>63329</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48725</v>
+        <v>48053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82053</v>
+        <v>81837</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06408320435967381</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04930590241691611</v>
+        <v>0.04862535539409419</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08303065566353994</v>
+        <v>0.08281206475127352</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>63</v>
@@ -5462,19 +5462,19 @@
         <v>50661</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37813</v>
+        <v>39436</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>64762</v>
+        <v>68525</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04532536728650097</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03383110781445171</v>
+        <v>0.03528302380856367</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05794162516725646</v>
+        <v>0.06130867667182602</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>124</v>
@@ -5483,19 +5483,19 @@
         <v>113989</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>95606</v>
+        <v>93608</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>137749</v>
+        <v>136164</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0541276026058457</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04539833028773517</v>
+        <v>0.04444984848622056</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06541012002191203</v>
+        <v>0.06465723491702415</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>3329251</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3288115</v>
+        <v>3292092</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3355620</v>
+        <v>3357710</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9436467648788963</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9319870849755064</v>
+        <v>0.933114333370953</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9511209811416641</v>
+        <v>0.9517132989287185</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5157</v>
@@ -5608,19 +5608,19 @@
         <v>3571959</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3547584</v>
+        <v>3547251</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3594607</v>
+        <v>3594819</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9574409779078216</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9509075415943987</v>
+        <v>0.9508182653074082</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.963511874239131</v>
+        <v>0.9635685045573145</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8356</v>
@@ -5629,19 +5629,19 @@
         <v>6901209</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6860177</v>
+        <v>6862992</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6939375</v>
+        <v>6940294</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9507364393368332</v>
+        <v>0.9507364393368331</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9450836908993709</v>
+        <v>0.9454715237452681</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9559943003090421</v>
+        <v>0.9561209057931217</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>198818</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>172449</v>
+        <v>170359</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>239954</v>
+        <v>235977</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05635323512110369</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04887901885833602</v>
+        <v>0.04828670107128149</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06801291502449398</v>
+        <v>0.06688566662904691</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>199</v>
@@ -5679,19 +5679,19 @@
         <v>158776</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>136128</v>
+        <v>135916</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>183151</v>
+        <v>183484</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04255902209217846</v>
+        <v>0.04255902209217847</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03648812576086877</v>
+        <v>0.03643149544268569</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04909245840560111</v>
+        <v>0.04918173469259161</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>371</v>
@@ -5700,19 +5700,19 @@
         <v>357595</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>319429</v>
+        <v>318510</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>398627</v>
+        <v>395812</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0492635606631669</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04400569969095795</v>
+        <v>0.04387909420687835</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05491630910062913</v>
+        <v>0.05452847625473194</v>
       </c>
     </row>
     <row r="18">
